--- a/data-raw/polifenoli/2020/polifenoli_HPLC_posa.xlsx
+++ b/data-raw/polifenoli/2020/polifenoli_HPLC_posa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Desktop\file progetto\polifenoli veri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDD3886-6FDF-4C97-80E6-9802D65D393B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6A3615-DB5A-4887-BD92-5008C8246F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D42F1501-9FEC-4851-B7BD-B10C81F9B577}"/>
+    <workbookView xWindow="1080" yWindow="1455" windowWidth="25275" windowHeight="13755" xr2:uid="{D42F1501-9FEC-4851-B7BD-B10C81F9B577}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="37">
   <si>
     <t>Idrossitirosolo</t>
   </si>
@@ -139,6 +139,15 @@
   </si>
   <si>
     <t>R2</t>
+  </si>
+  <si>
+    <t>CE_02</t>
+  </si>
+  <si>
+    <t>NA_02</t>
+  </si>
+  <si>
+    <t>SA_03</t>
   </si>
 </sst>
 </file>
@@ -180,8 +189,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -496,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515717C1-F799-4246-BFAC-63AB3ABCF04F}">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,26 +601,26 @@
       <c r="H2">
         <v>2</v>
       </c>
-      <c r="I2">
-        <v>0.10190099999999999</v>
-      </c>
-      <c r="J2">
-        <v>0.14302799999999999</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>1.4519999999999999E-3</v>
-      </c>
-      <c r="M2">
-        <v>4.5869999999999999E-3</v>
-      </c>
-      <c r="N2">
-        <v>2.3579999999999997E-2</v>
-      </c>
-      <c r="O2">
-        <v>8.7360000000000007E-3</v>
+      <c r="I2" s="1">
+        <v>101.901</v>
+      </c>
+      <c r="J2" s="1">
+        <v>143.02799999999999</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1.452</v>
+      </c>
+      <c r="M2" s="1">
+        <v>4.5869999999999997</v>
+      </c>
+      <c r="N2" s="1">
+        <v>23.58</v>
+      </c>
+      <c r="O2" s="1">
+        <v>8.7360000000000007</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -638,26 +648,26 @@
       <c r="H3">
         <v>2</v>
       </c>
-      <c r="I3">
-        <v>0.10098500000000001</v>
-      </c>
-      <c r="J3">
-        <v>0.13855999999999999</v>
-      </c>
-      <c r="K3">
-        <v>2.12E-4</v>
-      </c>
-      <c r="L3">
-        <v>1.4679999999999999E-3</v>
-      </c>
-      <c r="M3">
-        <v>4.8560000000000001E-3</v>
-      </c>
-      <c r="N3">
-        <v>2.2168E-2</v>
-      </c>
-      <c r="O3">
-        <v>6.5759999999999994E-3</v>
+      <c r="I3" s="1">
+        <v>100.985</v>
+      </c>
+      <c r="J3" s="1">
+        <v>138.56</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1.468</v>
+      </c>
+      <c r="M3" s="1">
+        <v>4.8559999999999999</v>
+      </c>
+      <c r="N3" s="1">
+        <v>22.167999999999999</v>
+      </c>
+      <c r="O3" s="1">
+        <v>6.5759999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -685,26 +695,26 @@
       <c r="H4">
         <v>2</v>
       </c>
-      <c r="I4">
-        <v>0.102687</v>
-      </c>
-      <c r="J4">
-        <v>0.137268</v>
-      </c>
-      <c r="K4">
-        <v>1.1899999999999999E-4</v>
-      </c>
-      <c r="L4">
-        <v>1.5560000000000001E-3</v>
-      </c>
-      <c r="M4">
-        <v>5.2469999999999999E-3</v>
-      </c>
-      <c r="N4">
-        <v>2.4986999999999999E-2</v>
-      </c>
-      <c r="O4">
-        <v>8.2249999999999997E-3</v>
+      <c r="I4" s="1">
+        <v>102.687</v>
+      </c>
+      <c r="J4" s="1">
+        <v>137.268</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1.556</v>
+      </c>
+      <c r="M4" s="1">
+        <v>5.2469999999999999</v>
+      </c>
+      <c r="N4" s="1">
+        <v>24.986999999999998</v>
+      </c>
+      <c r="O4" s="1">
+        <v>8.2249999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -732,26 +742,26 @@
       <c r="H5">
         <v>2</v>
       </c>
-      <c r="I5">
-        <v>7.8567999999999999E-2</v>
-      </c>
-      <c r="J5">
-        <v>4.4495E-2</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>8.1349999999999999E-3</v>
-      </c>
-      <c r="N5">
-        <v>5.8813000000000004E-2</v>
-      </c>
-      <c r="O5">
-        <v>7.3760000000000006E-3</v>
+      <c r="I5" s="1">
+        <v>78.567999999999998</v>
+      </c>
+      <c r="J5" s="1">
+        <v>44.494999999999997</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>8.1349999999999998</v>
+      </c>
+      <c r="N5" s="1">
+        <v>58.813000000000002</v>
+      </c>
+      <c r="O5" s="1">
+        <v>7.3760000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -779,26 +789,26 @@
       <c r="H6">
         <v>2</v>
       </c>
-      <c r="I6">
-        <v>7.7235999999999999E-2</v>
-      </c>
-      <c r="J6">
-        <v>4.3296999999999995E-2</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>6.7260000000000002E-3</v>
-      </c>
-      <c r="N6">
-        <v>4.4025000000000002E-2</v>
-      </c>
-      <c r="O6">
-        <v>6.2300000000000003E-3</v>
+      <c r="I6" s="1">
+        <v>77.236000000000004</v>
+      </c>
+      <c r="J6" s="1">
+        <v>43.296999999999997</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>6.726</v>
+      </c>
+      <c r="N6" s="1">
+        <v>44.024999999999999</v>
+      </c>
+      <c r="O6" s="1">
+        <v>6.23</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -826,26 +836,26 @@
       <c r="H7">
         <v>2</v>
       </c>
-      <c r="I7">
-        <v>7.9209999999999989E-2</v>
-      </c>
-      <c r="J7">
-        <v>4.1966999999999997E-2</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>7.5550000000000001E-3</v>
-      </c>
-      <c r="N7">
-        <v>3.798E-2</v>
-      </c>
-      <c r="O7">
-        <v>5.9720000000000007E-3</v>
+      <c r="I7" s="1">
+        <v>79.209999999999994</v>
+      </c>
+      <c r="J7" s="1">
+        <v>41.966999999999999</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>7.5549999999999997</v>
+      </c>
+      <c r="N7" s="1">
+        <v>37.979999999999997</v>
+      </c>
+      <c r="O7" s="1">
+        <v>5.9720000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -873,26 +883,26 @@
       <c r="H8">
         <v>2</v>
       </c>
-      <c r="I8">
-        <v>0.13414099999999998</v>
-      </c>
-      <c r="J8">
-        <v>0.299479</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>1.289E-3</v>
-      </c>
-      <c r="M8">
-        <v>1.0632999999999998E-2</v>
-      </c>
-      <c r="N8">
-        <v>8.9726E-2</v>
-      </c>
-      <c r="O8">
-        <v>3.6480000000000002E-3</v>
+      <c r="I8" s="1">
+        <v>134.14099999999999</v>
+      </c>
+      <c r="J8" s="1">
+        <v>299.47899999999998</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1.2889999999999999</v>
+      </c>
+      <c r="M8" s="1">
+        <v>10.632999999999999</v>
+      </c>
+      <c r="N8" s="1">
+        <v>89.725999999999999</v>
+      </c>
+      <c r="O8" s="1">
+        <v>3.6480000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -920,26 +930,26 @@
       <c r="H9">
         <v>2</v>
       </c>
-      <c r="I9">
-        <v>0.12512499999999999</v>
-      </c>
-      <c r="J9">
-        <v>0.304589</v>
-      </c>
-      <c r="K9">
-        <v>1.4999999999999999E-4</v>
-      </c>
-      <c r="L9">
-        <v>1.25E-3</v>
-      </c>
-      <c r="M9">
-        <v>1.0348000000000001E-2</v>
-      </c>
-      <c r="N9">
-        <v>7.3680999999999996E-2</v>
-      </c>
-      <c r="O9">
-        <v>3.5560000000000001E-3</v>
+      <c r="I9" s="1">
+        <v>125.125</v>
+      </c>
+      <c r="J9" s="1">
+        <v>304.589</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="M9" s="1">
+        <v>10.348000000000001</v>
+      </c>
+      <c r="N9" s="1">
+        <v>73.680999999999997</v>
+      </c>
+      <c r="O9" s="1">
+        <v>3.556</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -967,26 +977,26 @@
       <c r="H10">
         <v>2</v>
       </c>
-      <c r="I10">
-        <v>0.14238700000000001</v>
-      </c>
-      <c r="J10">
-        <v>0.31526999999999999</v>
-      </c>
-      <c r="K10">
-        <v>1.1E-4</v>
-      </c>
-      <c r="L10">
-        <v>1.335E-3</v>
-      </c>
-      <c r="M10">
-        <v>1.1247E-2</v>
-      </c>
-      <c r="N10">
-        <v>7.9670000000000005E-2</v>
-      </c>
-      <c r="O10">
-        <v>2.8450000000000003E-3</v>
+      <c r="I10" s="1">
+        <v>142.387</v>
+      </c>
+      <c r="J10" s="1">
+        <v>315.27</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1.335</v>
+      </c>
+      <c r="M10" s="1">
+        <v>11.247</v>
+      </c>
+      <c r="N10" s="1">
+        <v>79.67</v>
+      </c>
+      <c r="O10" s="1">
+        <v>2.8450000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1014,26 +1024,26 @@
       <c r="H11">
         <v>2</v>
       </c>
-      <c r="I11">
-        <v>0.79742499999999994</v>
-      </c>
-      <c r="J11">
-        <v>1.3507</v>
-      </c>
-      <c r="K11">
-        <v>8.5419999999999992E-3</v>
-      </c>
-      <c r="L11">
-        <v>7.0460000000000002E-3</v>
-      </c>
-      <c r="M11">
-        <v>6.1849999999999995E-3</v>
-      </c>
-      <c r="N11">
-        <v>2.0911000000000003E-2</v>
-      </c>
-      <c r="O11">
-        <v>2.918E-3</v>
+      <c r="I11" s="1">
+        <v>797.42499999999995</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1350.7</v>
+      </c>
+      <c r="K11" s="1">
+        <v>8.5419999999999998</v>
+      </c>
+      <c r="L11" s="1">
+        <v>7.0460000000000003</v>
+      </c>
+      <c r="M11" s="1">
+        <v>6.1849999999999996</v>
+      </c>
+      <c r="N11" s="1">
+        <v>20.911000000000001</v>
+      </c>
+      <c r="O11" s="1">
+        <v>2.9180000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1061,26 +1071,26 @@
       <c r="H12">
         <v>2</v>
       </c>
-      <c r="I12">
-        <v>0.81211999999999995</v>
-      </c>
-      <c r="J12">
-        <v>1.3048900000000001</v>
-      </c>
-      <c r="K12">
-        <v>8.116E-3</v>
-      </c>
-      <c r="L12">
-        <v>6.9870000000000002E-3</v>
-      </c>
-      <c r="M12">
-        <v>6.058E-3</v>
-      </c>
-      <c r="N12">
-        <v>2.1559999999999999E-2</v>
-      </c>
-      <c r="O12">
-        <v>2.3779999999999999E-3</v>
+      <c r="I12" s="1">
+        <v>812.12</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1304.8900000000001</v>
+      </c>
+      <c r="K12" s="1">
+        <v>8.1159999999999997</v>
+      </c>
+      <c r="L12" s="1">
+        <v>6.9870000000000001</v>
+      </c>
+      <c r="M12" s="1">
+        <v>6.0579999999999998</v>
+      </c>
+      <c r="N12" s="1">
+        <v>21.56</v>
+      </c>
+      <c r="O12" s="1">
+        <v>2.3780000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1108,26 +1118,26 @@
       <c r="H13">
         <v>2</v>
       </c>
-      <c r="I13">
-        <v>0.77625</v>
-      </c>
-      <c r="J13">
-        <v>1.2983399999999998</v>
-      </c>
-      <c r="K13">
-        <v>7.8620000000000009E-3</v>
-      </c>
-      <c r="L13">
-        <v>6.5409999999999999E-3</v>
-      </c>
-      <c r="M13">
-        <v>5.1870000000000006E-3</v>
-      </c>
-      <c r="N13">
-        <v>2.2179999999999998E-2</v>
-      </c>
-      <c r="O13">
-        <v>1.6870000000000001E-3</v>
+      <c r="I13" s="1">
+        <v>776.25</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1298.3399999999999</v>
+      </c>
+      <c r="K13" s="1">
+        <v>7.8620000000000001</v>
+      </c>
+      <c r="L13" s="1">
+        <v>6.5410000000000004</v>
+      </c>
+      <c r="M13" s="1">
+        <v>5.1870000000000003</v>
+      </c>
+      <c r="N13" s="1">
+        <v>22.18</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1.6870000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1155,26 +1165,26 @@
       <c r="H14">
         <v>2</v>
       </c>
-      <c r="I14">
-        <v>0.12128499999999999</v>
-      </c>
-      <c r="J14">
-        <v>0.140352</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>7.4299999999999995E-4</v>
-      </c>
-      <c r="M14">
-        <v>1.3987999999999999E-2</v>
-      </c>
-      <c r="N14">
-        <v>8.6449999999999999E-2</v>
-      </c>
-      <c r="O14">
-        <v>7.2779999999999997E-3</v>
+      <c r="I14" s="1">
+        <v>121.285</v>
+      </c>
+      <c r="J14" s="1">
+        <v>140.352</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="M14" s="1">
+        <v>13.988</v>
+      </c>
+      <c r="N14" s="1">
+        <v>86.45</v>
+      </c>
+      <c r="O14" s="1">
+        <v>7.2779999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1202,26 +1212,26 @@
       <c r="H15">
         <v>2</v>
       </c>
-      <c r="I15">
-        <v>0.11856</v>
-      </c>
-      <c r="J15">
-        <v>0.15535740000000001</v>
-      </c>
-      <c r="K15">
-        <v>1.1999999999999999E-4</v>
-      </c>
-      <c r="L15">
-        <v>7.8899999999999999E-4</v>
-      </c>
-      <c r="M15">
-        <v>1.2547000000000001E-2</v>
-      </c>
-      <c r="N15">
-        <v>8.5364000000000009E-2</v>
-      </c>
-      <c r="O15">
-        <v>6.5700000000000003E-3</v>
+      <c r="I15" s="1">
+        <v>118.56</v>
+      </c>
+      <c r="J15" s="1">
+        <v>155.35740000000001</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="M15" s="1">
+        <v>12.547000000000001</v>
+      </c>
+      <c r="N15" s="1">
+        <v>85.364000000000004</v>
+      </c>
+      <c r="O15" s="1">
+        <v>6.57</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1249,31 +1259,31 @@
       <c r="H16">
         <v>2</v>
       </c>
-      <c r="I16">
-        <v>0.12534000000000001</v>
-      </c>
-      <c r="J16">
-        <v>0.12866999999999998</v>
-      </c>
-      <c r="K16">
-        <v>9.2E-5</v>
-      </c>
-      <c r="L16">
-        <v>9.9500000000000001E-4</v>
-      </c>
-      <c r="M16">
-        <v>1.1964000000000001E-2</v>
-      </c>
-      <c r="N16">
-        <v>7.6346999999999998E-2</v>
-      </c>
-      <c r="O16">
-        <v>7.1589999999999996E-3</v>
+      <c r="I16" s="1">
+        <v>125.34</v>
+      </c>
+      <c r="J16" s="1">
+        <v>128.66999999999999</v>
+      </c>
+      <c r="K16" s="1">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.995</v>
+      </c>
+      <c r="M16" s="1">
+        <v>11.964</v>
+      </c>
+      <c r="N16" s="1">
+        <v>76.346999999999994</v>
+      </c>
+      <c r="O16" s="1">
+        <v>7.1589999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
@@ -1291,36 +1301,36 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0.10850499999999999</v>
+        <v>171.98500000000001</v>
       </c>
       <c r="J17">
-        <v>6.7429000000000003E-2</v>
+        <v>40.502000000000002</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>3.4220000000000002</v>
       </c>
       <c r="L17">
-        <v>7.2199999999999999E-4</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="M17">
-        <v>1.3337999999999999E-2</v>
+        <v>5.1340000000000003</v>
       </c>
       <c r="N17">
-        <v>6.6410999999999998E-2</v>
+        <v>128.15799999999999</v>
       </c>
       <c r="O17">
-        <v>6.7260000000000002E-3</v>
+        <v>7.2389999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
@@ -1338,36 +1348,36 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>9.9566999999999989E-2</v>
+        <v>173.2</v>
       </c>
       <c r="J18">
-        <v>6.2340000000000007E-2</v>
+        <v>42.68</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="L18">
-        <v>3.8000000000000002E-4</v>
+        <v>0.46</v>
       </c>
       <c r="M18">
-        <v>1.6570000000000001E-2</v>
+        <v>5.89</v>
       </c>
       <c r="N18">
-        <v>6.4870000000000011E-2</v>
+        <v>135.24</v>
       </c>
       <c r="O18">
-        <v>6.9785000000000003E-3</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
@@ -1385,36 +1395,36 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>0.10356699999999999</v>
+        <v>168.62</v>
       </c>
       <c r="J19">
-        <v>5.7985999999999996E-2</v>
+        <v>38.57</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>4.26</v>
       </c>
       <c r="L19">
-        <v>1.0200000000000001E-3</v>
+        <v>0.79</v>
       </c>
       <c r="M19">
-        <v>1.0289E-2</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="N19">
-        <v>7.1364000000000011E-2</v>
+        <v>138.25</v>
       </c>
       <c r="O19">
-        <v>5.8780000000000004E-3</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
@@ -1437,31 +1447,31 @@
       <c r="H20">
         <v>2</v>
       </c>
-      <c r="I20">
-        <v>0.21018999999999999</v>
-      </c>
-      <c r="J20">
-        <v>0.10130400000000001</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>2.483E-3</v>
-      </c>
-      <c r="M20">
-        <v>6.7729999999999995E-3</v>
-      </c>
-      <c r="N20">
-        <v>6.6670000000000002E-3</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
+      <c r="I20" s="1">
+        <v>108.505</v>
+      </c>
+      <c r="J20" s="1">
+        <v>67.429000000000002</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="M20" s="1">
+        <v>13.337999999999999</v>
+      </c>
+      <c r="N20" s="1">
+        <v>66.411000000000001</v>
+      </c>
+      <c r="O20" s="1">
+        <v>6.726</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
         <v>33</v>
@@ -1484,31 +1494,31 @@
       <c r="H21">
         <v>2</v>
       </c>
-      <c r="I21">
-        <v>0.18766999999999998</v>
-      </c>
-      <c r="J21">
-        <v>9.9675E-2</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>1.8759999999999998E-3</v>
-      </c>
-      <c r="M21">
-        <v>6.3449999999999999E-3</v>
-      </c>
-      <c r="N21">
-        <v>7.2680000000000002E-3</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
+      <c r="I21" s="1">
+        <v>99.566999999999993</v>
+      </c>
+      <c r="J21" s="1">
+        <v>62.34</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="M21" s="1">
+        <v>16.57</v>
+      </c>
+      <c r="N21" s="1">
+        <v>64.87</v>
+      </c>
+      <c r="O21" s="1">
+        <v>6.9785000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>33</v>
@@ -1531,31 +1541,31 @@
       <c r="H22">
         <v>2</v>
       </c>
-      <c r="I22">
-        <v>0.20368700000000001</v>
-      </c>
-      <c r="J22">
-        <v>0.10567</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>3.5479999999999999E-3</v>
-      </c>
-      <c r="M22">
-        <v>7.6140000000000001E-3</v>
-      </c>
-      <c r="N22">
-        <v>2.3639999999999998E-3</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
+      <c r="I22" s="1">
+        <v>103.56699999999999</v>
+      </c>
+      <c r="J22" s="1">
+        <v>57.985999999999997</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="M22" s="1">
+        <v>10.289</v>
+      </c>
+      <c r="N22" s="1">
+        <v>71.364000000000004</v>
+      </c>
+      <c r="O22" s="1">
+        <v>5.8780000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
         <v>33</v>
@@ -1573,36 +1583,36 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>2.4909789999999998</v>
+        <v>124.449</v>
       </c>
       <c r="J23">
-        <v>2.5426229999999999</v>
+        <v>76.722999999999999</v>
       </c>
       <c r="K23">
-        <v>0.13516800000000001</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.103272</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="M23">
-        <v>0.13253600000000001</v>
+        <v>6.7249999999999996</v>
       </c>
       <c r="N23">
-        <v>0.18068000000000001</v>
+        <v>35.485999999999997</v>
       </c>
       <c r="O23">
-        <v>4.8949999999999992E-3</v>
+        <v>3.7290000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
         <v>33</v>
@@ -1620,36 +1630,36 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>2.3580000000000001</v>
+        <v>126.87</v>
       </c>
       <c r="J24">
-        <v>2.45987</v>
+        <v>79.52</v>
       </c>
       <c r="K24">
-        <v>0.12956999999999999</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.10256999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="M24">
-        <v>0.12844999999999998</v>
+        <v>7.11</v>
       </c>
       <c r="N24">
-        <v>0.16797999999999999</v>
+        <v>32.56</v>
       </c>
       <c r="O24">
-        <v>5.1200000000000004E-3</v>
+        <v>4.1100000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
         <v>33</v>
@@ -1667,42 +1677,42 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>2.4996700000000001</v>
+        <v>135.35</v>
       </c>
       <c r="J25">
-        <v>2.6120199999999998</v>
+        <v>72.45</v>
       </c>
       <c r="K25">
-        <v>0.12637999999999999</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1076</v>
+        <v>0.89</v>
       </c>
       <c r="M25">
-        <v>0.12789</v>
+        <v>5.98</v>
       </c>
       <c r="N25">
-        <v>0.17715799999999998</v>
+        <v>40.26</v>
       </c>
       <c r="O25">
-        <v>4.8700000000000002E-3</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26">
         <v>2020</v>
@@ -1719,37 +1729,37 @@
       <c r="H26">
         <v>2</v>
       </c>
-      <c r="I26">
-        <v>0.209728</v>
-      </c>
-      <c r="J26">
-        <v>0.148399</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>1.0308999999999999E-2</v>
-      </c>
-      <c r="M26">
-        <v>2.3172000000000002E-2</v>
-      </c>
-      <c r="N26">
-        <v>7.3645000000000002E-2</v>
-      </c>
-      <c r="O26">
+      <c r="I26" s="1">
+        <v>210.19</v>
+      </c>
+      <c r="J26" s="1">
+        <v>101.304</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>2.4830000000000001</v>
+      </c>
+      <c r="M26" s="1">
+        <v>6.7729999999999997</v>
+      </c>
+      <c r="N26" s="1">
+        <v>6.6669999999999998</v>
+      </c>
+      <c r="O26" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27">
         <v>2020</v>
@@ -1766,37 +1776,37 @@
       <c r="H27">
         <v>2</v>
       </c>
-      <c r="I27">
-        <v>0.20813999999999999</v>
-      </c>
-      <c r="J27">
-        <v>0.14424999999999999</v>
-      </c>
-      <c r="K27">
-        <v>1.1999999999999999E-4</v>
-      </c>
-      <c r="L27">
-        <v>8.9700000000000005E-3</v>
-      </c>
-      <c r="M27">
-        <v>2.1250000000000002E-2</v>
-      </c>
-      <c r="N27">
-        <v>7.2699E-2</v>
-      </c>
-      <c r="O27">
-        <v>2.3000000000000001E-4</v>
+      <c r="I27" s="1">
+        <v>187.67</v>
+      </c>
+      <c r="J27" s="1">
+        <v>99.674999999999997</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1.8759999999999999</v>
+      </c>
+      <c r="M27" s="1">
+        <v>6.3449999999999998</v>
+      </c>
+      <c r="N27" s="1">
+        <v>7.2679999999999998</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
         <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28">
         <v>2020</v>
@@ -1813,31 +1823,31 @@
       <c r="H28">
         <v>2</v>
       </c>
-      <c r="I28">
-        <v>0.2054</v>
-      </c>
-      <c r="J28">
-        <v>0.14956999999999998</v>
-      </c>
-      <c r="K28">
-        <v>2.3999999999999998E-4</v>
-      </c>
-      <c r="L28">
-        <v>7.9950000000000004E-3</v>
-      </c>
-      <c r="M28">
-        <v>2.512E-2</v>
-      </c>
-      <c r="N28">
-        <v>7.1050000000000002E-2</v>
-      </c>
-      <c r="O28">
+      <c r="I28" s="1">
+        <v>203.68700000000001</v>
+      </c>
+      <c r="J28" s="1">
+        <v>105.67</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>3.548</v>
+      </c>
+      <c r="M28" s="1">
+        <v>7.6139999999999999</v>
+      </c>
+      <c r="N28" s="1">
+        <v>2.3639999999999999</v>
+      </c>
+      <c r="O28" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
         <v>33</v>
@@ -1860,31 +1870,31 @@
       <c r="H29">
         <v>2</v>
       </c>
-      <c r="I29">
-        <v>0.199821</v>
-      </c>
-      <c r="J29">
-        <v>0.13350200000000001</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>1.4718E-2</v>
-      </c>
-      <c r="M29">
-        <v>1.4369999999999999E-2</v>
-      </c>
-      <c r="N29">
-        <v>4.1058999999999998E-2</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
+      <c r="I29" s="1">
+        <v>2490.9789999999998</v>
+      </c>
+      <c r="J29" s="1">
+        <v>2542.623</v>
+      </c>
+      <c r="K29" s="1">
+        <v>135.16800000000001</v>
+      </c>
+      <c r="L29" s="1">
+        <v>103.27200000000001</v>
+      </c>
+      <c r="M29" s="1">
+        <v>132.536</v>
+      </c>
+      <c r="N29" s="1">
+        <v>180.68</v>
+      </c>
+      <c r="O29" s="1">
+        <v>4.8949999999999996</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
@@ -1907,31 +1917,31 @@
       <c r="H30">
         <v>2</v>
       </c>
-      <c r="I30">
-        <v>0.18756</v>
-      </c>
-      <c r="J30">
-        <v>0.16425000000000001</v>
-      </c>
-      <c r="K30">
-        <v>1.6900000000000002E-4</v>
-      </c>
-      <c r="L30">
-        <v>1.125E-2</v>
-      </c>
-      <c r="M30">
-        <v>1.357E-2</v>
-      </c>
-      <c r="N30">
-        <v>4.4690000000000001E-2</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
+      <c r="I30" s="1">
+        <v>2358</v>
+      </c>
+      <c r="J30" s="1">
+        <v>2459.87</v>
+      </c>
+      <c r="K30" s="1">
+        <v>129.57</v>
+      </c>
+      <c r="L30" s="1">
+        <v>102.57</v>
+      </c>
+      <c r="M30" s="1">
+        <v>128.44999999999999</v>
+      </c>
+      <c r="N30" s="1">
+        <v>167.98</v>
+      </c>
+      <c r="O30" s="1">
+        <v>5.12</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
@@ -1954,37 +1964,37 @@
       <c r="H31">
         <v>2</v>
       </c>
-      <c r="I31">
-        <v>0.17956</v>
-      </c>
-      <c r="J31">
-        <v>0.15425</v>
-      </c>
-      <c r="K31">
-        <v>2.14E-4</v>
-      </c>
-      <c r="L31">
-        <v>1.5259999999999999E-2</v>
-      </c>
-      <c r="M31">
-        <v>1.4289999999999999E-2</v>
-      </c>
-      <c r="N31">
-        <v>4.5190000000000001E-2</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
+      <c r="I31" s="1">
+        <v>2499.67</v>
+      </c>
+      <c r="J31" s="1">
+        <v>2612.02</v>
+      </c>
+      <c r="K31" s="1">
+        <v>126.38</v>
+      </c>
+      <c r="L31" s="1">
+        <v>107.6</v>
+      </c>
+      <c r="M31" s="1">
+        <v>127.89</v>
+      </c>
+      <c r="N31" s="1">
+        <v>177.15799999999999</v>
+      </c>
+      <c r="O31" s="1">
+        <v>4.87</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D32">
         <v>2020</v>
@@ -2001,37 +2011,37 @@
       <c r="H32">
         <v>2</v>
       </c>
-      <c r="I32">
-        <v>0.22254400000000002</v>
-      </c>
-      <c r="J32">
-        <v>0.24681600000000001</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>2.3479999999999998E-3</v>
-      </c>
-      <c r="M32">
-        <v>4.6969999999999998E-3</v>
-      </c>
-      <c r="N32">
-        <v>3.947E-3</v>
-      </c>
-      <c r="O32">
+      <c r="I32" s="1">
+        <v>209.72800000000001</v>
+      </c>
+      <c r="J32" s="1">
+        <v>148.399</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>10.308999999999999</v>
+      </c>
+      <c r="M32" s="1">
+        <v>23.172000000000001</v>
+      </c>
+      <c r="N32" s="1">
+        <v>73.644999999999996</v>
+      </c>
+      <c r="O32" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D33">
         <v>2020</v>
@@ -2048,37 +2058,37 @@
       <c r="H33">
         <v>2</v>
       </c>
-      <c r="I33">
-        <v>0.20365</v>
-      </c>
-      <c r="J33">
-        <v>0.24124999999999999</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>1.98E-3</v>
-      </c>
-      <c r="M33">
-        <v>4.8700000000000002E-3</v>
-      </c>
-      <c r="N33">
-        <v>3.9900000000000005E-3</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
+      <c r="I33" s="1">
+        <v>208.14</v>
+      </c>
+      <c r="J33" s="1">
+        <v>144.25</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="L33" s="1">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="M33" s="1">
+        <v>21.25</v>
+      </c>
+      <c r="N33" s="1">
+        <v>72.698999999999998</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0.23</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D34">
         <v>2020</v>
@@ -2095,31 +2105,31 @@
       <c r="H34">
         <v>2</v>
       </c>
-      <c r="I34">
-        <v>0.22787000000000002</v>
-      </c>
-      <c r="J34">
-        <v>0.23458000000000001</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>2.4700000000000004E-3</v>
-      </c>
-      <c r="M34">
-        <v>5.1399999999999996E-3</v>
-      </c>
-      <c r="N34">
-        <v>4.5700000000000003E-3</v>
-      </c>
-      <c r="O34">
+      <c r="I34" s="1">
+        <v>205.4</v>
+      </c>
+      <c r="J34" s="1">
+        <v>149.57</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="L34" s="1">
+        <v>7.9950000000000001</v>
+      </c>
+      <c r="M34" s="1">
+        <v>25.12</v>
+      </c>
+      <c r="N34" s="1">
+        <v>71.05</v>
+      </c>
+      <c r="O34" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
@@ -2137,28 +2147,28 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>0.18754699999999999</v>
+        <v>1813.0419999999999</v>
       </c>
       <c r="J35">
-        <v>0.30163000000000001</v>
+        <v>1502.184</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>17.327000000000002</v>
       </c>
       <c r="L35">
-        <v>6.829E-3</v>
+        <v>3.76</v>
       </c>
       <c r="M35">
-        <v>7.3040000000000006E-3</v>
+        <v>11.855</v>
       </c>
       <c r="N35">
-        <v>3.0672000000000001E-2</v>
+        <v>10.978</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -2166,7 +2176,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
         <v>33</v>
@@ -2184,28 +2194,28 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>0.18868000000000001</v>
+        <v>1798.56</v>
       </c>
       <c r="J36">
-        <v>0.30058699999999999</v>
+        <v>1456</v>
       </c>
       <c r="K36">
-        <v>1.1999999999999999E-4</v>
+        <v>16.21</v>
       </c>
       <c r="L36">
-        <v>7.5199999999999998E-3</v>
+        <v>1.98</v>
       </c>
       <c r="M36">
-        <v>7.4560000000000008E-3</v>
+        <v>10.98</v>
       </c>
       <c r="N36">
-        <v>3.1255999999999999E-2</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -2213,7 +2223,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>33</v>
@@ -2231,28 +2241,28 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>0.19236699999999998</v>
+        <v>1821.35</v>
       </c>
       <c r="J37">
-        <v>0.29536700000000005</v>
+        <v>1498.24</v>
       </c>
       <c r="K37">
-        <v>1.35E-4</v>
+        <v>15.87</v>
       </c>
       <c r="L37">
-        <v>6.9870000000000002E-3</v>
+        <v>4.68</v>
       </c>
       <c r="M37">
-        <v>7.8209999999999998E-3</v>
+        <v>12.16</v>
       </c>
       <c r="N37">
-        <v>3.0986999999999997E-2</v>
+        <v>11.58</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -2260,7 +2270,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B38" t="s">
         <v>33</v>
@@ -2284,30 +2294,30 @@
         <v>2</v>
       </c>
       <c r="I38">
-        <v>0.23561500000000002</v>
+        <v>199.821</v>
       </c>
       <c r="J38">
-        <v>0.99593799999999999</v>
+        <v>133.50200000000001</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>1.6080000000000001E-3</v>
+        <v>14.718</v>
       </c>
       <c r="M38">
-        <v>4.8899999999999994E-3</v>
+        <v>14.37</v>
       </c>
       <c r="N38">
-        <v>2.5960000000000002E-3</v>
+        <v>41.058999999999997</v>
       </c>
       <c r="O38">
-        <v>6.8139999999999997E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
         <v>33</v>
@@ -2331,30 +2341,30 @@
         <v>2</v>
       </c>
       <c r="I39">
-        <v>0.24409400000000001</v>
+        <v>187.56</v>
       </c>
       <c r="J39">
-        <v>0.98763999999999996</v>
+        <v>164.25</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="L39">
-        <v>1.5920000000000001E-3</v>
+        <v>11.25</v>
       </c>
       <c r="M39">
-        <v>5.0260000000000001E-3</v>
+        <v>13.57</v>
       </c>
       <c r="N39">
-        <v>2.588E-3</v>
+        <v>44.69</v>
       </c>
       <c r="O39">
-        <v>6.7520000000000002E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B40" t="s">
         <v>33</v>
@@ -2378,30 +2388,30 @@
         <v>2</v>
       </c>
       <c r="I40">
-        <v>0.23616699999999999</v>
+        <v>179.56</v>
       </c>
       <c r="J40">
-        <v>0.99022199999999994</v>
+        <v>154.25</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>0.214</v>
       </c>
       <c r="L40">
-        <v>1.6050000000000001E-3</v>
+        <v>15.26</v>
       </c>
       <c r="M40">
-        <v>4.9823000000000003E-3</v>
+        <v>14.29</v>
       </c>
       <c r="N40">
-        <v>2.6435E-3</v>
+        <v>45.19</v>
       </c>
       <c r="O40">
-        <v>6.8799999999999998E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B41" t="s">
         <v>33</v>
@@ -2425,22 +2435,22 @@
         <v>2</v>
       </c>
       <c r="I41">
-        <v>2.2058589999999998</v>
+        <v>222.54400000000001</v>
       </c>
       <c r="J41">
-        <v>2.33196</v>
+        <v>246.816</v>
       </c>
       <c r="K41">
-        <v>5.9945999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>5.5615000000000005E-2</v>
+        <v>2.3479999999999999</v>
       </c>
       <c r="M41">
-        <v>1.8453000000000001E-2</v>
+        <v>4.6970000000000001</v>
       </c>
       <c r="N41">
-        <v>2.3646E-2</v>
+        <v>3.9470000000000001</v>
       </c>
       <c r="O41">
         <v>0</v>
@@ -2448,7 +2458,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B42" t="s">
         <v>33</v>
@@ -2472,22 +2482,22 @@
         <v>2</v>
       </c>
       <c r="I42">
-        <v>2.2103640000000002</v>
+        <v>203.65</v>
       </c>
       <c r="J42">
-        <v>2.22648</v>
+        <v>241.25</v>
       </c>
       <c r="K42">
-        <v>6.1253999999999996E-2</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>5.4267000000000003E-2</v>
+        <v>1.98</v>
       </c>
       <c r="M42">
-        <v>1.7687000000000001E-2</v>
+        <v>4.87</v>
       </c>
       <c r="N42">
-        <v>2.2678999999999998E-2</v>
+        <v>3.99</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -2495,7 +2505,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B43" t="s">
         <v>33</v>
@@ -2519,24 +2529,447 @@
         <v>2</v>
       </c>
       <c r="I43">
-        <v>2.1675629999999999</v>
+        <v>227.87</v>
       </c>
       <c r="J43">
-        <v>2.30768</v>
+        <v>234.58</v>
       </c>
       <c r="K43">
-        <v>5.9972999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>5.5972000000000001E-2</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="M43">
-        <v>1.9149999999999997E-2</v>
+        <v>5.14</v>
       </c>
       <c r="N43">
-        <v>2.3156E-2</v>
+        <v>4.57</v>
       </c>
       <c r="O43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44">
+        <v>2020</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>187.547</v>
+      </c>
+      <c r="J44">
+        <v>301.63</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>6.8289999999999997</v>
+      </c>
+      <c r="M44">
+        <v>7.3040000000000003</v>
+      </c>
+      <c r="N44">
+        <v>30.672000000000001</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45">
+        <v>2020</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>188.68</v>
+      </c>
+      <c r="J45">
+        <v>300.58699999999999</v>
+      </c>
+      <c r="K45">
+        <v>0.12</v>
+      </c>
+      <c r="L45">
+        <v>7.52</v>
+      </c>
+      <c r="M45">
+        <v>7.4560000000000004</v>
+      </c>
+      <c r="N45">
+        <v>31.256</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46">
+        <v>2020</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46">
+        <v>192.36699999999999</v>
+      </c>
+      <c r="J46">
+        <v>295.36700000000002</v>
+      </c>
+      <c r="K46">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="L46">
+        <v>6.9870000000000001</v>
+      </c>
+      <c r="M46">
+        <v>7.8209999999999997</v>
+      </c>
+      <c r="N46">
+        <v>30.986999999999998</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47">
+        <v>2020</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47" s="1">
+        <v>235.61500000000001</v>
+      </c>
+      <c r="J47" s="1">
+        <v>995.93799999999999</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>1.6080000000000001</v>
+      </c>
+      <c r="M47" s="1">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="N47" s="1">
+        <v>2.5960000000000001</v>
+      </c>
+      <c r="O47" s="1">
+        <v>6.8140000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48">
+        <v>2020</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48" s="1">
+        <v>244.09399999999999</v>
+      </c>
+      <c r="J48" s="1">
+        <v>987.64</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>1.5920000000000001</v>
+      </c>
+      <c r="M48" s="1">
+        <v>5.0259999999999998</v>
+      </c>
+      <c r="N48" s="1">
+        <v>2.5880000000000001</v>
+      </c>
+      <c r="O48" s="1">
+        <v>6.7519999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49">
+        <v>2020</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49" s="1">
+        <v>236.167</v>
+      </c>
+      <c r="J49" s="1">
+        <v>990.22199999999998</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
+        <v>1.605</v>
+      </c>
+      <c r="M49" s="1">
+        <v>4.9823000000000004</v>
+      </c>
+      <c r="N49" s="1">
+        <v>2.6435</v>
+      </c>
+      <c r="O49" s="1">
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50">
+        <v>2020</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50" s="1">
+        <v>2205.8589999999999</v>
+      </c>
+      <c r="J50" s="1">
+        <v>2331.96</v>
+      </c>
+      <c r="K50" s="1">
+        <v>59.945999999999998</v>
+      </c>
+      <c r="L50" s="1">
+        <v>55.615000000000002</v>
+      </c>
+      <c r="M50" s="1">
+        <v>18.452999999999999</v>
+      </c>
+      <c r="N50" s="1">
+        <v>23.646000000000001</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51">
+        <v>2020</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51" s="1">
+        <v>2210.364</v>
+      </c>
+      <c r="J51" s="1">
+        <v>2226.48</v>
+      </c>
+      <c r="K51" s="1">
+        <v>61.253999999999998</v>
+      </c>
+      <c r="L51" s="1">
+        <v>54.267000000000003</v>
+      </c>
+      <c r="M51" s="1">
+        <v>17.687000000000001</v>
+      </c>
+      <c r="N51" s="1">
+        <v>22.678999999999998</v>
+      </c>
+      <c r="O51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52">
+        <v>2020</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52" s="1">
+        <v>2167.5630000000001</v>
+      </c>
+      <c r="J52" s="1">
+        <v>2307.6799999999998</v>
+      </c>
+      <c r="K52" s="1">
+        <v>59.972999999999999</v>
+      </c>
+      <c r="L52" s="1">
+        <v>55.972000000000001</v>
+      </c>
+      <c r="M52" s="1">
+        <v>19.149999999999999</v>
+      </c>
+      <c r="N52" s="1">
+        <v>23.155999999999999</v>
+      </c>
+      <c r="O52" s="1">
         <v>0</v>
       </c>
     </row>
